--- a/pegasus/8dbs/files/SIH/CNES_OUT_TCNESBR_PLUS_ANOS_2008_2019.xlsx
+++ b/pegasus/8dbs/files/SIH/CNES_OUT_TCNESBR_PLUS_ANOS_2008_2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericc\Desktop\susana\files\SIH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericc\Desktop\8dbs\files\SIH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BC17EE-C83E-40B2-A63C-C97C04ADC561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD253E3-9DA9-4DD7-9734-2307AB7A8A56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>9923837</t>
+  </si>
+  <si>
+    <t>2430495</t>
+  </si>
+  <si>
+    <t>2480050</t>
+  </si>
+  <si>
+    <t>7914288</t>
+  </si>
+  <si>
+    <t>9685871</t>
   </si>
 </sst>
 </file>
@@ -489,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+      <selection activeCell="A34" sqref="A34:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,6 +674,26 @@
         <v>32</v>
       </c>
     </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pegasus/8dbs/files/SIH/CNES_OUT_TCNESBR_PLUS_ANOS_2008_2019.xlsx
+++ b/pegasus/8dbs/files/SIH/CNES_OUT_TCNESBR_PLUS_ANOS_2008_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericc\Desktop\8dbs\files\SIH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD253E3-9DA9-4DD7-9734-2307AB7A8A56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD36C701-47E4-4D4B-9A85-CB2BF9D13AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,6 +149,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -193,12 +194,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A37"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,176 +527,199 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
+      <c r="A4" s="3">
+        <v>2079038</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
+      <c r="A9" s="3">
+        <v>2464225</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
+      <c r="A15" s="3">
+        <v>3060918</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
+      <c r="A34" s="3">
+        <v>9813349</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A41">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
